--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,42 +546,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SD card speed low Change card</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>SD card speed low Change card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,42 +621,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,42 +696,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,42 +771,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,42 +846,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,42 +921,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,42 +996,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Home Point Recorded Taking</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,42 +1071,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,42 +1146,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Critically Low Voltage Aircraft will land</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,42 +1221,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Loading database failed Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,42 +1296,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,46 +1387,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,37 +1446,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1521,37 +1521,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1562,26 +1562,26 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1596,37 +1596,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,42 +1671,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,32 +1746,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,42 +546,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low Change card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SD card speed low Change card</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,42 +621,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,42 +696,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,42 +771,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,42 +846,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,42 +921,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,42 +996,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Home Point Recorded Taking off</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,42 +1071,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,42 +1146,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Critically Low Voltage Aircraft will land</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,42 +1221,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Loading database failed Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,42 +1296,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,46 +1387,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,37 +1446,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1521,37 +1521,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1562,26 +1562,26 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1596,37 +1596,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,42 +1671,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,32 +1746,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
